--- a/public/baoCaoXNT/05_2024.xlsx
+++ b/public/baoCaoXNT/05_2024.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>Báo cáo xuất nhập tồn</t>
   </si>
@@ -29,6 +29,9 @@
     <t>Tên sản phẩm</t>
   </si>
   <si>
+    <t>Mã danh mục</t>
+  </si>
+  <si>
     <t>Tồn đầu kỳ</t>
   </si>
   <si>
@@ -57,6 +60,9 @@
   </si>
   <si>
     <t>Smart Tivi LG 4K 55 inch 55UQ8000PSC</t>
+  </si>
+  <si>
+    <t>may giat 1</t>
   </si>
 </sst>
 </file>
@@ -396,7 +402,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -410,9 +416,10 @@
     <col min="4" max="4" width="10" customWidth="true" style="0"/>
     <col min="5" max="5" width="10" customWidth="true" style="0"/>
     <col min="6" max="6" width="10" customWidth="true" style="0"/>
+    <col min="7" max="7" width="10" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -420,7 +427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -439,36 +446,42 @@
       <c r="F2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>6</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -479,16 +492,19 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -499,16 +515,19 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -519,16 +538,19 @@
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -539,16 +561,19 @@
       <c r="F7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -557,13 +582,39 @@
         <v>0</v>
       </c>
       <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C1:G1"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/baoCaoXNT/05_2024.xlsx
+++ b/public/baoCaoXNT/05_2024.xlsx
@@ -602,13 +602,13 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/public/baoCaoXNT/05_2024.xlsx
+++ b/public/baoCaoXNT/05_2024.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>Báo cáo xuất nhập tồn</t>
   </si>
@@ -62,7 +62,70 @@
     <t>Smart Tivi LG 4K 55 inch 55UQ8000PSC</t>
   </si>
   <si>
-    <t>may giat 1</t>
+    <t>Điện thoại Samsung Galaxy S23 Ultra 5G 8GB/256GB</t>
+  </si>
+  <si>
+    <t>Smart Tivi OLED Toshiba 4K 55 inch 55X9900LP</t>
+  </si>
+  <si>
+    <t>Điện thoại iPhone 15 Pro Max 256GB</t>
+  </si>
+  <si>
+    <t>Google Tivi TCL 4K 55 inch 55P635</t>
+  </si>
+  <si>
+    <t>Máy lạnh Nagakawa Inverter 1 HP NIS-C09R2T28</t>
+  </si>
+  <si>
+    <t>Máy lạnh Casper Inverter 1 HP GC-09IS35</t>
+  </si>
+  <si>
+    <t>Máy lạnh TCL Inverter 1.5 HP TAC-13CSD/XAB1I</t>
+  </si>
+  <si>
+    <t>Máy lạnh tủ đứng LG Inverter 4 HP ZPNQ36GR5A0</t>
+  </si>
+  <si>
+    <t>Máy lạnh âm trần LG Inverter 3 HP ZTNQ30GNLE0</t>
+  </si>
+  <si>
+    <t>Máy lạnh Daikin Inverter 1 HP ATKF25YVMV</t>
+  </si>
+  <si>
+    <t>Máy lạnh Nagakawa Inverter 1.5 HP NIS-C12R2T28</t>
+  </si>
+  <si>
+    <t>Android Tivi AQUA 4K 55 inch AQT55D67UG</t>
+  </si>
+  <si>
+    <t>Google Tivi Xiaomi A 4K 55 inch L55M8-P2SEA</t>
+  </si>
+  <si>
+    <t>Google Tivi Sony 4K 65 inch KD-65X75K</t>
+  </si>
+  <si>
+    <t>Google Tivi AQUA 4K 50 inch AQT50P750UG</t>
+  </si>
+  <si>
+    <t>Google Tivi AQUA 4K 65 inch AQT65P750UG</t>
+  </si>
+  <si>
+    <t>Smart Tivi QLED 4K 43 inch Samsung QA43Q60B</t>
+  </si>
+  <si>
+    <t>Máy lạnh Panasonic Inverter 1 HP CU/CS-XU9ZKH-8</t>
+  </si>
+  <si>
+    <t>Máy lạnh Panasonic Inverter 1 HP CU/CS-PU9AKH-8</t>
+  </si>
+  <si>
+    <t>Điện thoại Xiaomi Redmi Note 13 8GB/128GB</t>
+  </si>
+  <si>
+    <t>Camera IP 360 Độ 2MP Ezviz C6N</t>
+  </si>
+  <si>
+    <t>Camera IP 360 Độ 5MP EZVIZ H6</t>
   </si>
 </sst>
 </file>
@@ -402,7 +465,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,16 +524,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,7 +547,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -493,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -507,7 +570,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -516,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -530,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -539,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -553,7 +616,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -562,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -576,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -585,30 +648,504 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>9</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>8</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>9</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26">
+        <v>17</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27">
+        <v>17</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>53</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29">
         <v>5</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>54</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30">
         <v>5</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
